--- a/RQ3/result/GA/GA_6.xlsx
+++ b/RQ3/result/GA/GA_6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CDB9F3-168A-4F50-A593-C22EBA9B0D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F347AFC-1C44-426E-858C-6A01CD1FD5CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>number</t>
   </si>
@@ -52,18 +52,6 @@
     <t>cost_time_v1:</t>
   </si>
   <si>
-    <t>why choice this API?</t>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
-  </si>
-  <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>java.awt.Window.dispose()</t>
   </si>
   <si>
-    <t>https://examples.javacodegeeks.com/desktop-java/swing/close-application-properly/</t>
-  </si>
-  <si>
     <t>Difference between StringBuilder and StringBuffer</t>
   </si>
   <si>
@@ -157,12 +142,6 @@
     <t>java.util.LinkedHashMap</t>
   </si>
   <si>
-    <t> Its Spliterator typically provides faster sequential performance but much poorer parallel performance than that of HashMap.</t>
-  </si>
-  <si>
-    <t>java doc</t>
-  </si>
-  <si>
     <t>Difference between getCause and getNextException in SQLException?</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t>java.io.FileReader</t>
   </si>
   <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/io/FileInputStream.html</t>
-  </si>
-  <si>
     <t>HashMap vs ArrayList performance am I correct</t>
   </si>
   <si>
@@ -220,43 +196,12 @@
     <t>java.time.LocalDateTime.now(java.time.ZoneId)</t>
   </si>
   <si>
-    <t>obtain the current date-time from the system clock in the specified time-zone</t>
-  </si>
-  <si>
-    <t>Because it is thread safe.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>I don't know what this problem is all about.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because this api is registered.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because this api will close the entire java VM, and the second will only close the window.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because this api follows the carriage return as the end of the read, it is more suitable for reading files.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can read the usual files in the file system.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because map is a dictionary structure, and list is a list structure.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>If we only want to close a Java Swing application when a button is clicked, which method should I use?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -266,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,12 +227,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF474747"/>
-      <name val="DejaVu Serif"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -332,32 +271,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -636,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,15 +589,10 @@
     <col min="8" max="8" width="25.25" style="3" customWidth="1"/>
     <col min="9" max="9" width="31" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="46.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="50.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="25.25" style="3" customWidth="1"/>
-    <col min="15" max="15" width="23.25" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -693,21 +623,8 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -715,22 +632,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
@@ -738,14 +655,8 @@
       <c r="J2" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -753,22 +664,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -776,14 +687,8 @@
       <c r="J3" s="7">
         <v>152</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -791,22 +696,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
@@ -815,14 +720,8 @@
         <f>46</f>
         <v>46</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -830,22 +729,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -854,13 +753,8 @@
         <f>2*60+16</f>
         <v>136</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="N5"/>
-      <c r="O5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -868,22 +762,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
@@ -891,14 +785,8 @@
       <c r="J6" s="2">
         <v>60</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -906,22 +794,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -930,17 +818,8 @@
         <f>1*60+24</f>
         <v>84</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -948,22 +827,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -972,14 +851,8 @@
         <f>1*60+26</f>
         <v>86</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -987,22 +860,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -1010,17 +883,8 @@
       <c r="J9" s="3">
         <v>187</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1028,22 +892,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1051,18 +915,8 @@
       <c r="J10" s="2">
         <v>60</v>
       </c>
-      <c r="K10" s="2">
-        <f>4*60+24</f>
-        <v>264</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1070,22 +924,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1094,14 +948,8 @@
         <f>1*60+30</f>
         <v>90</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="O11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1109,22 +957,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -1132,21 +980,8 @@
       <c r="J12" s="2">
         <v>120</v>
       </c>
-      <c r="K12" s="2">
-        <f>2*60+49</f>
-        <v>169</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1154,22 +989,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
@@ -1177,21 +1012,10 @@
       <c r="J13" s="3">
         <v>50</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N7" r:id="rId1" tooltip="https://examples.javacodegeeks.com/desktop-java/swing/close-application-properly/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L9" r:id="rId2" tooltip="https://docs.oracle.com/javase/8/docs/api/java/util/Spliterator.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="N12" r:id="rId3" tooltip="https://docs.oracle.com/javase/8/docs/api/java/io/FileInputStream.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RQ3/result/GA/GA_6.xlsx
+++ b/RQ3/result/GA/GA_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F347AFC-1C44-426E-858C-6A01CD1FD5CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F785E25F-E6D4-48CE-B370-E9C3140B1CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>answer (1-API_1,  2-API_2, 3-unknown)</t>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -201,6 +198,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +575,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -632,22 +633,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
@@ -664,22 +665,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -696,22 +697,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2">
         <v>2</v>
@@ -729,22 +730,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -762,22 +763,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
@@ -794,22 +795,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -827,22 +828,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -860,22 +861,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -892,22 +893,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -924,22 +925,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -957,22 +958,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -989,22 +990,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
